--- a/data/trans_camb/P12A1_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P12A1_2_R-Estudios-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-7,89</t>
+          <t>-1,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,81</t>
+          <t>4,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-18,57</t>
+          <t>-6,22</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,95</t>
+          <t>-2,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-14,56</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>7,03</t>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-1,75</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1,84</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-1,71</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-39,26; 28,64</t>
+          <t>-13,83; 13,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-31,54; 33,63</t>
+          <t>-10,07; 22,15</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-44,54; 6,63</t>
+          <t>-17,97; 4,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-15,8; 39,73</t>
+          <t>-10,91; 4,24</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-35,26; 7,07</t>
+          <t>-10,0; 6,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-14,19; 28,19</t>
+          <t>-7,04; 12,14</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-9,45; 5,13</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-6,11; 11,0</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-9,13; 4,88</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-17,57%</t>
+          <t>-10,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>48,63%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-50,08%</t>
+          <t>-61,96%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,52%</t>
+          <t>-41,26%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-36,18%</t>
+          <t>-18,34%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,47%</t>
+          <t>38,11%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-22,44%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>23,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-21,94%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-66,34; 125,18</t>
+          <t>-84,4; 373,03</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-52,93; 130,32</t>
+          <t>-61,18; 538,92</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-89,85; 17,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-36,99; 186,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-73,31; 20,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 98,03</t>
+          <t>-78,53; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-79,41; 151,29</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-55,09; 297,6</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-77,3; 141,95</t>
         </is>
       </c>
     </row>
@@ -757,32 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,87</t>
+          <t>1,11</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,2</t>
+          <t>-1,94</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,48</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,85</t>
+          <t>-0,11</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,62</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>2,96</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-0,0</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1,85</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-23,53; 24,89</t>
+          <t>-4,52; 6,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-30,49; 21,77</t>
+          <t>-6,93; 1,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-26,02; 24,71</t>
+          <t>-4,29; 7,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 30,43</t>
+          <t>-5,48; 5,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 16,11</t>
+          <t>-3,54; 8,46</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-19,86; 19,27</t>
+          <t>-2,92; 9,72</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 4,24</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-3,8; 3,6</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-2,19; 6,14</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-10,69%</t>
+          <t>-37,43%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-2,82%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,06%</t>
+          <t>-1,35%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-1,36%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>36,61%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-0,07%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>27,71%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,93; 85,4</t>
+          <t>-58,72; 212,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-59,2; 77,6</t>
+          <t>-81,7; 79,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 60,57</t>
+          <t>-59,13; 250,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,37; 74,64</t>
+          <t>-53,24; 107,94</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-34,36; 42,91</t>
+          <t>-33,81; 155,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,7; 50,49</t>
+          <t>-29,83; 191,75</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-39,62; 81,71</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-44,48; 67,81</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-26,76; 119,93</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,72</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-7,77</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>16,99</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,56</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>12,73</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,29</t>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-1,23</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-26,09; 32,82</t>
+          <t>-5,47; 9,13</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-36,48; 24,88</t>
+          <t>-8,63; 4,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-9,94; 45,22</t>
+          <t>-5,77; 10,0</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-21,96; 30,42</t>
+          <t>-4,27; 3,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,01; 31,85</t>
+          <t>-4,54; 2,67</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,04; 18,07</t>
+          <t>-3,54; 4,3</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-3,53; 4,43</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-4,99; 2,36</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-2,91; 5,12</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>16,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-11,97%</t>
+          <t>-19,53%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>52,25%</t>
+          <t>17,51%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>-12,31%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>27,09%</t>
+          <t>-22,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-2,75%</t>
+          <t>4,6%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8,42%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-18,97%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>16,27%</t>
         </is>
       </c>
     </row>
@@ -1027,39 +1223,54 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-32,88; 68,37</t>
+          <t>-45,49; 152,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-49,37; 54,56</t>
+          <t>-64,53; 82,03</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-22,08; 243,78</t>
+          <t>-44,44; 161,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-47,75; 142,02</t>
+          <t>-73,74; 194,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-14,36; 91,3</t>
+          <t>-75,36; 178,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-43,24; 51,36</t>
+          <t>-62,48; 226,15</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-42,87; 98,69</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-58,57; 59,96</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-37,65; 108,94</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,32</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-4,97</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,12</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>8,66</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-1,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,95; 17,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-21,93; 16,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-21,65; 13,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-8,99; 25,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 10,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 13,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-0,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-7,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>20,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-3,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,282 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-31,66; 47,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-41,94; 40,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-42,01; 34,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 71,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,91; 24,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-21,13; 35,08</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-1,05</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,05</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-0,56</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>1,88</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>-0,18</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>0,98</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-3,69; 5,2</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-5,21; 2,55</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 4,19</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-3,82; 2,51</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-2,87; 3,87</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,25; 5,98</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 3,01</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,84; 2,3</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>-1,71; 3,62</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>12,59%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-13,86%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-0,65%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-9,23%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>9,37%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>30,98%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2,68%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>-2,71%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>14,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-36,93; 91,3</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-51,95; 48,47</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-47,98; 78,02</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-48,94; 58,61</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-37,14; 90,0</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-16,59; 138,56</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-29,4; 54,39</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-35,24; 41,74</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>-21,57; 63,99</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
